--- a/biology/Botanique/Salix_turanica/Salix_turanica.xlsx
+++ b/biology/Botanique/Salix_turanica/Salix_turanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Salix turanica est une espèce de saule à feuillage gris, de la famille des Salicaceae, originaire de l'Asie centrale[2],[1],[3].
+Salix turanica est une espèce de saule à feuillage gris, de la famille des Salicaceae, originaire de l'Asie centrale.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix. songarica Andersson[4].
-Alexey Skvortsov indique que  les espèces du saule des lapons, Salix lapponum, Linnaeus, originaires d'Europe et du nord-ouest asiatique sont des spécimens mal identifiés de Salix turanica, par Flora Xizang[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix. songarica Andersson.
+Alexey Skvortsov indique que  les espèces du saule des lapons, Salix lapponum, Linnaeus, originaires d'Europe et du nord-ouest asiatique sont des spécimens mal identifiés de Salix turanica, par Flora Xizang.</t>
         </is>
       </c>
     </row>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix turanica est un petit arbre ou un arbuste à feuilles caduques, atteignant une hauteur de 3 m dans son milieu naturel).
 Les rameaux sont de brun jaunâtre à tomenteux blanc grisâtre. Le pétiole mesure de 2 à 5 mm, il est tomenteux. Le limbe est largement lancéolé, oblong ou ovale-oblong, de 4,5 à 14 × 1 à 3 cm, soyeux argenté |abaxialement terne, adaxialement vert, vert sale ou grisâtre, tomenteux, à la base largement cunéiforme. La marge est entière ou sinueuse, révolutée, avec un apex acuminé. Les nervures sont brunes, divergeant de la nervure médiane à angle obtus. La floraison est précoce et cotonneuse.
 Le chaton mâle, de  2 à 4 cm, est sessile. Le  rachis porte des villosités. Il comporte des bractées brunes, presque noires, oblongues, à sommet obtus ou aigu. La fleur mâle porte une glande adaxiale linéaire, de 0,5 à 1,5 mm. Les deux étamines sont libres, glabres. Le chaton femelle, de 3 à 4 cm, est allongé. La fleur femelle est longue, avec un ovaire conique, de 5 à 6 mm, densément tomenteux, gris, sessile. Le style mesure de 0,8 à 1,5 mm, il est plus long que la stigmatisation. La floraison a lieu en avril, la fructification en mai.
-Chromosomie : 2n = 38[4].
+Chromosomie : 2n = 38.
 L'espèce se rencontre le long des rivières, dans le Xinjiang (Ili Il vallée), en Afghanistan, au nord-ouest de l'Inde, au Kazakhstan, au Kirghizistan, en Mongolie, au Pakistan et au Tadjikistan.
 </t>
         </is>
